--- a/document/Fase2 parte 2/Checklist de Aceptación.xlsx
+++ b/document/Fase2 parte 2/Checklist de Aceptación.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>Fase / Release</t>
   </si>
@@ -43,9 +43,18 @@
     <t>Transversal</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Criterio transversal; no hay TP específico. Se asume rama principal estable y tests ejecutándose sin errores.</t>
+  </si>
+  <si>
     <t>¿El script de BD y migraciones se ejecutan desde cero sin errores?</t>
   </si>
   <si>
+    <t>Se valida con Prisma migrate (dev/deploy). Sin TP dedicado, pero forma parte del flujo normal de despliegue.</t>
+  </si>
+  <si>
     <t>Seguridad</t>
   </si>
   <si>
@@ -55,12 +64,18 @@
     <t>HU-29 / TP-001</t>
   </si>
   <si>
+    <t>TP-001 en estado OK.</t>
+  </si>
+  <si>
     <t>¿Roles (Admin/Bodeguero) ven solo los menús permitidos?</t>
   </si>
   <si>
     <t>HU-18 / TP-003</t>
   </si>
   <si>
+    <t>TP-003 en estado OK.</t>
+  </si>
+  <si>
     <t>Funcional</t>
   </si>
   <si>
@@ -70,24 +85,36 @@
     <t>HU-02, HU-03</t>
   </si>
   <si>
+    <t>Cubierto por TP-004, TP-005, TP-006, TP-028, todos en estado OK.</t>
+  </si>
+  <si>
     <t>¿Se pueden gestionar Bodegas y Ubicaciones correctamente?</t>
   </si>
   <si>
     <t>HU-05, HU-06</t>
   </si>
   <si>
+    <t>Cubierto principalmente por TP-008 (OK). Se asume que edición/listado reutiliza la misma capa.</t>
+  </si>
+  <si>
     <t>¿Funciona el Ingreso de Stock Inicial (con lote y costo)?</t>
   </si>
   <si>
     <t>HU-07 / TP-009</t>
   </si>
   <si>
+    <t>TP-009 en estado OK.</t>
+  </si>
+  <si>
     <t>¿El sistema bloquea stocks negativos en ajustes manuales?</t>
   </si>
   <si>
     <t>HU-11 / TP-036</t>
   </si>
   <si>
+    <t>TP-036 en estado OK.</t>
+  </si>
+  <si>
     <t>Calidad</t>
   </si>
   <si>
@@ -97,12 +124,21 @@
     <t>TP-001 a TP-010</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>TP-010 está Bloqueado; el resto (TP-001–TP-009) están OK. Hay deuda en el flujo de creación de solicitudes.</t>
+  </si>
+  <si>
     <t>Documentación</t>
   </si>
   <si>
     <t>¿Swagger/Docs de API publicado para endpoints de Catálogo y Auth?</t>
   </si>
   <si>
+    <t>No hay TP específico de documentación (Swagger/Redoc) ni evidencia en el plan. Se deja como pendiente/futuro release.</t>
+  </si>
+  <si>
     <t>Release 2 (Operación)</t>
   </si>
   <si>
@@ -112,54 +148,81 @@
     <t>TP-091</t>
   </si>
   <si>
+    <t>TP-091 en estado OK.</t>
+  </si>
+  <si>
     <t>¿Se pueden crear Proyectos y asignarles peticiones de material?</t>
   </si>
   <si>
     <t>HU-13, HU-14</t>
   </si>
   <si>
+    <t>Creación/gestión cubierta por TP-046, TP-048, TP-049, TP-053, TP-058, TP-092 (todos OK). La paginación de centros de costo (TP-054) está NOK, pero no bloquea la creación ni asignación.</t>
+  </si>
+  <si>
     <t>¿El despacho descuenta stock del lote específico seleccionado (Picking)?</t>
   </si>
   <si>
     <t>HU-27 / TP-015</t>
   </si>
   <si>
+    <t>TP-015 en estado OK.</t>
+  </si>
+  <si>
     <t>¿La recepción (total/parcial) actualiza el Kardex y estado de petición?</t>
   </si>
   <si>
     <t>HU-16 / TP-016</t>
   </si>
   <si>
+    <t>TP-016 está marcado Obsoleto; la recepción en obra/total-parcial quedó fuera de alcance o sin cierre completo. Deuda funcional clara.</t>
+  </si>
+  <si>
     <t>¿Las devoluciones retornan stock al almacén con trazabilidad?</t>
   </si>
   <si>
     <t>HU-17 / TP-018</t>
   </si>
   <si>
+    <t>TP-018 en estado OK.</t>
+  </si>
+  <si>
     <t>¿El cálculo de PPP (Costo Promedio) se actualiza tras nuevos ingresos?</t>
   </si>
   <si>
     <t>HU-12 / TP-020</t>
   </si>
   <si>
+    <t>TP-020 en estado OK.</t>
+  </si>
+  <si>
     <t>¿Los reportes (Kardex, Consumo por Proyecto) exportan datos correctos?</t>
   </si>
   <si>
     <t>HU-20, HU-28</t>
   </si>
   <si>
+    <t>Reportes base funcionan, pero TP-067 y TP-068 están Bloqueados (rangos inválidos y sin datos) y TP-069 está Obsoleto (exportar a PDF). Hay deuda en casos de borde y exportación.</t>
+  </si>
+  <si>
     <t>¿Se generan alertas visuales/correo al bajar del stock mínimo?</t>
   </si>
   <si>
     <t>HU-21 / TP-023</t>
   </si>
   <si>
+    <t>TP-023 en estado OK (alerta visible y/o correo).</t>
+  </si>
+  <si>
     <t>¿Protección contra inyección SQL y XSS verificada en inputs críticos?</t>
   </si>
   <si>
     <t>TP-083, TP-084</t>
   </si>
   <si>
+    <t>TP-083 y TP-084 en estado OK (intentos de SQLi y XSS no comprometen el sistema).</t>
+  </si>
+  <si>
     <t>Rendimiento</t>
   </si>
   <si>
@@ -169,12 +232,18 @@
     <t>TP-030, TP-085</t>
   </si>
   <si>
+    <t>Ambos TP en estado OK, con tiempos bajo los umbrales definidos.</t>
+  </si>
+  <si>
     <t>¿Pasan los 40+ casos de prueba del flujo operativo sin bugs críticos?</t>
   </si>
   <si>
     <t>Plan de Pruebas</t>
   </si>
   <si>
+    <t>De 100 TP totales, solo 78 están OK; el resto están Bloqueados, NOK u Obsoletos. No se cumple el 100% del plan.</t>
+  </si>
+  <si>
     <t>UI / UX</t>
   </si>
   <si>
@@ -182,6 +251,9 @@
   </si>
   <si>
     <t>TP-034</t>
+  </si>
+  <si>
+    <t>TP-034 está NOK (el sidebar se contrae, pero hay problemas de layout en secciones largas).</t>
   </si>
 </sst>
 </file>
@@ -256,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -267,7 +339,10 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -276,7 +351,10 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,6 +577,7 @@
     <col customWidth="1" min="4" max="4" width="40.38"/>
     <col customWidth="1" min="5" max="5" width="15.63"/>
     <col customWidth="1" min="6" max="6" width="14.0"/>
+    <col customWidth="1" min="7" max="7" width="55.63"/>
     <col customWidth="1" min="10" max="10" width="13.5"/>
   </cols>
   <sheetData>
@@ -535,8 +614,12 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
@@ -546,333 +629,417 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="D24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
